--- a/src/fileExport/Subject_Export.xlsx
+++ b/src/fileExport/Subject_Export.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,10 +418,10 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>19090</v>
+        <v>19089</v>
       </c>
       <c r="B2" t="str">
-        <v>Lap trinh huong doi tuong 2</v>
+        <v>Lap trinh huong doi tuong</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -432,63 +432,21 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>19089</v>
+        <v>19090</v>
       </c>
       <c r="B3" t="str">
-        <v>Lap trinh huong doi tuong</v>
+        <v>Lap trinh huong doi tuong 2</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>19089</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Phuong Phap Lap Trinh 1111</v>
-      </c>
-      <c r="C4" t="str">
-        <v>...</v>
-      </c>
-      <c r="D4" t="str">
-        <v>3.000.000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>19089</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Lap trinh huong doi tuong</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>19090</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Lap trinh huong doi tuong 2</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6">
         <v>4000000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
   </ignoredErrors>
 </worksheet>
 </file>